--- a/data_owners.xlsx
+++ b/data_owners.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="1258">
   <si>
     <t>Строганов Александр Владимирович</t>
   </si>
@@ -4033,7 +4033,7 @@
       <protection locked="0" hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4117,34 +4117,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -4174,6 +4146,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4465,8 +4479,8 @@
   </sheetPr>
   <dimension ref="A1:L459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -4600,13 +4614,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="42" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="45">
         <v>42.1</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4620,11 +4634,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="43">
+        <v>6</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="45">
+        <v>42.1</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>772</v>
       </c>
@@ -4636,13 +4654,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="42" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="45">
         <v>42.1</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -4656,11 +4674,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="43">
+        <v>7</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="45">
+        <v>42.1</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>772</v>
       </c>
@@ -5208,13 +5230,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="42" t="s">
         <v>220</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="45">
         <v>42.4</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -5228,11 +5250,15 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="43">
+        <v>35</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="30"/>
+      <c r="C39" s="45">
+        <v>42.4</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>772</v>
       </c>
@@ -5304,13 +5330,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="42" t="s">
         <v>155</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="45">
         <v>42.1</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -5324,11 +5350,15 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="44">
+        <v>39</v>
+      </c>
       <c r="B44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="32"/>
+      <c r="C44" s="45">
+        <v>42.1</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>772</v>
       </c>
@@ -5340,11 +5370,15 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="44">
+        <v>39</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="45">
+        <v>42.1</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>772</v>
       </c>
@@ -5356,11 +5390,15 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
+      <c r="A46" s="43">
+        <v>39</v>
+      </c>
       <c r="B46" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="30"/>
+      <c r="C46" s="45">
+        <v>42.1</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>772</v>
       </c>
@@ -5570,13 +5608,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="42" t="s">
         <v>122</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="31">
+      <c r="C57" s="45">
         <v>41.9</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -5590,11 +5628,15 @@
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
+      <c r="A58" s="42" t="s">
+        <v>122</v>
+      </c>
       <c r="B58" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="45">
+        <v>41.9</v>
+      </c>
       <c r="D58" s="7" t="s">
         <v>772</v>
       </c>
@@ -5606,11 +5648,15 @@
       </c>
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
+      <c r="A59" s="42" t="s">
+        <v>122</v>
+      </c>
       <c r="B59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="32"/>
+      <c r="C59" s="45">
+        <v>41.9</v>
+      </c>
       <c r="D59" s="7" t="s">
         <v>772</v>
       </c>
@@ -5622,11 +5668,15 @@
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
+      <c r="A60" s="42" t="s">
+        <v>122</v>
+      </c>
       <c r="B60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="30"/>
+      <c r="C60" s="45">
+        <v>41.9</v>
+      </c>
       <c r="D60" s="7" t="s">
         <v>772</v>
       </c>
@@ -5658,13 +5708,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="31">
+      <c r="C62" s="34">
         <v>62.7</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -5678,11 +5728,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
+      <c r="A63" s="35"/>
       <c r="B63" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="30"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="7" t="s">
         <v>772</v>
       </c>
@@ -5973,13 +6023,13 @@
       </c>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="31">
+      <c r="C78" s="34">
         <v>42.4</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -5993,11 +6043,11 @@
       </c>
     </row>
     <row r="79" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="32"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="7" t="s">
         <v>772</v>
       </c>
@@ -6009,11 +6059,11 @@
       </c>
     </row>
     <row r="80" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="30"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="7" t="s">
         <v>772</v>
       </c>
@@ -6045,13 +6095,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="31">
+      <c r="C82" s="34">
         <v>63.1</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -6065,11 +6115,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="30"/>
+      <c r="A83" s="35"/>
       <c r="B83" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="30"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="7" t="s">
         <v>772</v>
       </c>
@@ -6181,13 +6231,13 @@
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="36" t="s">
         <v>58</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="31">
+      <c r="C89" s="34">
         <v>41.9</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -6201,11 +6251,11 @@
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="30"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="30"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="7" t="s">
         <v>772</v>
       </c>
@@ -6437,13 +6487,13 @@
       </c>
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="34">
         <v>41.8</v>
       </c>
       <c r="D102" s="7" t="s">
@@ -6457,11 +6507,11 @@
       </c>
     </row>
     <row r="103" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="32"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C103" s="32"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="7" t="s">
         <v>772</v>
       </c>
@@ -6473,11 +6523,11 @@
       </c>
     </row>
     <row r="104" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="32"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="32"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="7" t="s">
         <v>772</v>
       </c>
@@ -6489,11 +6539,11 @@
       </c>
     </row>
     <row r="105" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
+      <c r="A105" s="35"/>
       <c r="B105" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="30"/>
+      <c r="C105" s="35"/>
       <c r="D105" s="7" t="s">
         <v>772</v>
       </c>
@@ -6603,13 +6653,13 @@
       </c>
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="31">
+      <c r="C111" s="34">
         <v>62.6</v>
       </c>
       <c r="D111" s="7" t="s">
@@ -6623,11 +6673,11 @@
       </c>
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="32"/>
+      <c r="A112" s="37"/>
       <c r="B112" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="32"/>
+      <c r="C112" s="37"/>
       <c r="D112" s="7" t="s">
         <v>772</v>
       </c>
@@ -6639,11 +6689,11 @@
       </c>
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="32"/>
+      <c r="A113" s="37"/>
       <c r="B113" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="32"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="7" t="s">
         <v>772</v>
       </c>
@@ -6655,11 +6705,11 @@
       </c>
     </row>
     <row r="114" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="30"/>
+      <c r="A114" s="35"/>
       <c r="B114" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="30"/>
+      <c r="C114" s="35"/>
       <c r="D114" s="7" t="s">
         <v>772</v>
       </c>
@@ -6749,14 +6799,14 @@
       </c>
     </row>
     <row r="119" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="33" t="s">
+      <c r="A119" s="25" t="s">
         <v>763</v>
       </c>
       <c r="B119" s="19"/>
-      <c r="C119" s="35">
+      <c r="C119" s="27">
         <v>91.7</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="25" t="s">
         <v>772</v>
       </c>
       <c r="E119" s="21"/>
@@ -6765,10 +6815,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="34"/>
+      <c r="A120" s="26"/>
       <c r="B120" s="19"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="21"/>
       <c r="F120" s="19" t="s">
         <v>1238</v>
@@ -6833,13 +6883,13 @@
       </c>
     </row>
     <row r="124" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="36" t="s">
         <v>754</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="C124" s="31">
+      <c r="C124" s="34">
         <v>75.900000000000006</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -6853,11 +6903,11 @@
       </c>
     </row>
     <row r="125" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="32"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="C125" s="32"/>
+      <c r="C125" s="37"/>
       <c r="D125" s="7" t="s">
         <v>772</v>
       </c>
@@ -6869,11 +6919,11 @@
       </c>
     </row>
     <row r="126" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
+      <c r="A126" s="37"/>
       <c r="B126" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="C126" s="32"/>
+      <c r="C126" s="37"/>
       <c r="D126" s="7" t="s">
         <v>772</v>
       </c>
@@ -6885,11 +6935,11 @@
       </c>
     </row>
     <row r="127" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="30"/>
+      <c r="A127" s="35"/>
       <c r="B127" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="C127" s="30"/>
+      <c r="C127" s="35"/>
       <c r="D127" s="7" t="s">
         <v>772</v>
       </c>
@@ -7101,13 +7151,13 @@
       </c>
     </row>
     <row r="138" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="29" t="s">
+      <c r="A138" s="36" t="s">
         <v>735</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="C138" s="31">
+      <c r="C138" s="34">
         <v>60.2</v>
       </c>
       <c r="D138" s="7" t="s">
@@ -7121,11 +7171,11 @@
       </c>
     </row>
     <row r="139" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="30"/>
+      <c r="A139" s="35"/>
       <c r="B139" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="C139" s="30"/>
+      <c r="C139" s="35"/>
       <c r="D139" s="7" t="s">
         <v>772</v>
       </c>
@@ -7237,13 +7287,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="29" t="s">
+      <c r="A145" s="36" t="s">
         <v>718</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C145" s="31">
+      <c r="C145" s="34">
         <v>60</v>
       </c>
       <c r="D145" s="7" t="s">
@@ -7257,11 +7307,11 @@
       </c>
     </row>
     <row r="146" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="32"/>
+      <c r="A146" s="37"/>
       <c r="B146" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="C146" s="32"/>
+      <c r="C146" s="37"/>
       <c r="D146" s="7" t="s">
         <v>772</v>
       </c>
@@ -7273,11 +7323,11 @@
       </c>
     </row>
     <row r="147" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
+      <c r="A147" s="37"/>
       <c r="B147" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C147" s="32"/>
+      <c r="C147" s="37"/>
       <c r="D147" s="7" t="s">
         <v>772</v>
       </c>
@@ -7289,11 +7339,11 @@
       </c>
     </row>
     <row r="148" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="30"/>
+      <c r="A148" s="35"/>
       <c r="B148" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="C148" s="30"/>
+      <c r="C148" s="35"/>
       <c r="D148" s="7" t="s">
         <v>772</v>
       </c>
@@ -7465,13 +7515,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="36" t="s">
         <v>697</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="C157" s="31">
+      <c r="C157" s="34">
         <v>102.4</v>
       </c>
       <c r="D157" s="7" t="s">
@@ -7485,11 +7535,11 @@
       </c>
     </row>
     <row r="158" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="32"/>
+      <c r="A158" s="37"/>
       <c r="B158" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="C158" s="32"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="7" t="s">
         <v>772</v>
       </c>
@@ -7501,11 +7551,11 @@
       </c>
     </row>
     <row r="159" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="30"/>
+      <c r="A159" s="35"/>
       <c r="B159" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="C159" s="30"/>
+      <c r="C159" s="35"/>
       <c r="D159" s="7" t="s">
         <v>772</v>
       </c>
@@ -7858,13 +7908,13 @@
       </c>
     </row>
     <row r="177" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="29" t="s">
+      <c r="A177" s="36" t="s">
         <v>658</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C177" s="31">
+      <c r="C177" s="34">
         <v>102.7</v>
       </c>
       <c r="D177" s="7" t="s">
@@ -7878,11 +7928,11 @@
       </c>
     </row>
     <row r="178" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="32"/>
+      <c r="A178" s="37"/>
       <c r="B178" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C178" s="32"/>
+      <c r="C178" s="37"/>
       <c r="D178" s="7" t="s">
         <v>772</v>
       </c>
@@ -7894,11 +7944,11 @@
       </c>
     </row>
     <row r="179" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="32"/>
+      <c r="A179" s="37"/>
       <c r="B179" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C179" s="32"/>
+      <c r="C179" s="37"/>
       <c r="D179" s="7" t="s">
         <v>772</v>
       </c>
@@ -7910,11 +7960,11 @@
       </c>
     </row>
     <row r="180" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="30"/>
+      <c r="A180" s="35"/>
       <c r="B180" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C180" s="30"/>
+      <c r="C180" s="35"/>
       <c r="D180" s="7" t="s">
         <v>772</v>
       </c>
@@ -7966,13 +8016,13 @@
       </c>
     </row>
     <row r="183" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="29" t="s">
+      <c r="A183" s="36" t="s">
         <v>648</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C183" s="31">
+      <c r="C183" s="34">
         <v>60.4</v>
       </c>
       <c r="D183" s="7" t="s">
@@ -7986,11 +8036,11 @@
       </c>
     </row>
     <row r="184" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="30"/>
+      <c r="A184" s="35"/>
       <c r="B184" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C184" s="30"/>
+      <c r="C184" s="35"/>
       <c r="D184" s="7" t="s">
         <v>772</v>
       </c>
@@ -8158,13 +8208,13 @@
       </c>
     </row>
     <row r="193" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="29" t="s">
+      <c r="A193" s="36" t="s">
         <v>625</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C193" s="31">
+      <c r="C193" s="34">
         <v>104.6</v>
       </c>
       <c r="D193" s="7" t="s">
@@ -8178,11 +8228,11 @@
       </c>
     </row>
     <row r="194" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="32"/>
+      <c r="A194" s="37"/>
       <c r="B194" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="C194" s="32"/>
+      <c r="C194" s="37"/>
       <c r="D194" s="7" t="s">
         <v>772</v>
       </c>
@@ -8194,11 +8244,11 @@
       </c>
     </row>
     <row r="195" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="32"/>
+      <c r="A195" s="37"/>
       <c r="B195" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C195" s="32"/>
+      <c r="C195" s="37"/>
       <c r="D195" s="7" t="s">
         <v>772</v>
       </c>
@@ -8210,11 +8260,11 @@
       </c>
     </row>
     <row r="196" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="32"/>
+      <c r="A196" s="37"/>
       <c r="B196" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="32"/>
+      <c r="C196" s="37"/>
       <c r="D196" s="7" t="s">
         <v>772</v>
       </c>
@@ -8226,11 +8276,11 @@
       </c>
     </row>
     <row r="197" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="30"/>
+      <c r="A197" s="35"/>
       <c r="B197" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="C197" s="30"/>
+      <c r="C197" s="35"/>
       <c r="D197" s="7" t="s">
         <v>772</v>
       </c>
@@ -8504,13 +8554,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="29" t="s">
+      <c r="A211" s="36" t="s">
         <v>594</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C211" s="31">
+      <c r="C211" s="34">
         <v>62.8</v>
       </c>
       <c r="D211" s="7" t="s">
@@ -8524,11 +8574,11 @@
       </c>
     </row>
     <row r="212" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="32"/>
+      <c r="A212" s="37"/>
       <c r="B212" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C212" s="32"/>
+      <c r="C212" s="37"/>
       <c r="D212" s="7" t="s">
         <v>772</v>
       </c>
@@ -8540,11 +8590,11 @@
       </c>
     </row>
     <row r="213" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="32"/>
+      <c r="A213" s="37"/>
       <c r="B213" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C213" s="32"/>
+      <c r="C213" s="37"/>
       <c r="D213" s="7" t="s">
         <v>772</v>
       </c>
@@ -8556,9 +8606,9 @@
       </c>
     </row>
     <row r="214" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="30"/>
+      <c r="A214" s="35"/>
       <c r="B214" s="19"/>
-      <c r="C214" s="30"/>
+      <c r="C214" s="35"/>
       <c r="D214" s="18" t="s">
         <v>772</v>
       </c>
@@ -9006,13 +9056,13 @@
       </c>
     </row>
     <row r="237" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="29" t="s">
+      <c r="A237" s="36" t="s">
         <v>543</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C237" s="31">
+      <c r="C237" s="34">
         <v>62.9</v>
       </c>
       <c r="D237" s="7" t="s">
@@ -9026,11 +9076,11 @@
       </c>
     </row>
     <row r="238" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="30"/>
+      <c r="A238" s="35"/>
       <c r="B238" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="C238" s="30"/>
+      <c r="C238" s="35"/>
       <c r="D238" s="7" t="s">
         <v>772</v>
       </c>
@@ -9051,11 +9101,11 @@
       <c r="C239" s="8">
         <v>63</v>
       </c>
-      <c r="D239" s="39" t="s">
+      <c r="D239" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="E239" s="40"/>
-      <c r="F239" s="41"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="33"/>
       <c r="H239" s="6"/>
       <c r="J239" s="6"/>
     </row>
@@ -9069,22 +9119,22 @@
       <c r="C240" s="8">
         <v>42.3</v>
       </c>
-      <c r="D240" s="39" t="s">
+      <c r="D240" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="E240" s="40"/>
-      <c r="F240" s="41"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="33"/>
       <c r="H240" s="6"/>
       <c r="J240" s="6"/>
     </row>
     <row r="241" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="29" t="s">
+      <c r="A241" s="36" t="s">
         <v>537</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C241" s="31">
+      <c r="C241" s="34">
         <v>42.5</v>
       </c>
       <c r="D241" s="7" t="s">
@@ -9098,11 +9148,11 @@
       </c>
     </row>
     <row r="242" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="30"/>
+      <c r="A242" s="35"/>
       <c r="B242" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C242" s="30"/>
+      <c r="C242" s="35"/>
       <c r="D242" s="7" t="s">
         <v>772</v>
       </c>
@@ -9470,13 +9520,13 @@
       </c>
     </row>
     <row r="261" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="29" t="s">
+      <c r="A261" s="36" t="s">
         <v>491</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C261" s="31">
+      <c r="C261" s="34">
         <v>77</v>
       </c>
       <c r="D261" s="7" t="s">
@@ -9490,11 +9540,11 @@
       </c>
     </row>
     <row r="262" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="32"/>
+      <c r="A262" s="37"/>
       <c r="B262" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C262" s="32"/>
+      <c r="C262" s="37"/>
       <c r="D262" s="7" t="s">
         <v>772</v>
       </c>
@@ -9506,11 +9556,11 @@
       </c>
     </row>
     <row r="263" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="32"/>
+      <c r="A263" s="37"/>
       <c r="B263" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C263" s="32"/>
+      <c r="C263" s="37"/>
       <c r="D263" s="7" t="s">
         <v>772</v>
       </c>
@@ -9522,11 +9572,11 @@
       </c>
     </row>
     <row r="264" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="32"/>
+      <c r="A264" s="37"/>
       <c r="B264" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C264" s="32"/>
+      <c r="C264" s="37"/>
       <c r="D264" s="7" t="s">
         <v>772</v>
       </c>
@@ -9538,11 +9588,11 @@
       </c>
     </row>
     <row r="265" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="32"/>
+      <c r="A265" s="37"/>
       <c r="B265" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C265" s="32"/>
+      <c r="C265" s="37"/>
       <c r="D265" s="7" t="s">
         <v>772</v>
       </c>
@@ -9554,11 +9604,11 @@
       </c>
     </row>
     <row r="266" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="32"/>
+      <c r="A266" s="37"/>
       <c r="B266" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C266" s="32"/>
+      <c r="C266" s="37"/>
       <c r="D266" s="7" t="s">
         <v>772</v>
       </c>
@@ -9570,11 +9620,11 @@
       </c>
     </row>
     <row r="267" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="30"/>
+      <c r="A267" s="35"/>
       <c r="B267" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C267" s="30"/>
+      <c r="C267" s="35"/>
       <c r="D267" s="7" t="s">
         <v>772</v>
       </c>
@@ -9586,13 +9636,13 @@
       </c>
     </row>
     <row r="268" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="29" t="s">
+      <c r="A268" s="36" t="s">
         <v>485</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C268" s="31">
+      <c r="C268" s="34">
         <v>100.9</v>
       </c>
       <c r="D268" s="7" t="s">
@@ -9606,11 +9656,11 @@
       </c>
     </row>
     <row r="269" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="32"/>
+      <c r="A269" s="37"/>
       <c r="B269" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C269" s="32"/>
+      <c r="C269" s="37"/>
       <c r="D269" s="7" t="s">
         <v>772</v>
       </c>
@@ -9622,11 +9672,11 @@
       </c>
     </row>
     <row r="270" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="32"/>
+      <c r="A270" s="37"/>
       <c r="B270" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C270" s="32"/>
+      <c r="C270" s="37"/>
       <c r="D270" s="7" t="s">
         <v>772</v>
       </c>
@@ -9638,11 +9688,11 @@
       </c>
     </row>
     <row r="271" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="30"/>
+      <c r="A271" s="35"/>
       <c r="B271" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C271" s="30"/>
+      <c r="C271" s="35"/>
       <c r="D271" s="7" t="s">
         <v>772</v>
       </c>
@@ -9663,11 +9713,11 @@
       <c r="C272" s="8">
         <v>62</v>
       </c>
-      <c r="D272" s="39" t="s">
+      <c r="D272" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="E272" s="40"/>
-      <c r="F272" s="41"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="33"/>
       <c r="H272" s="6"/>
     </row>
     <row r="273" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9851,13 +9901,13 @@
       </c>
     </row>
     <row r="282" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="29" t="s">
+      <c r="A282" s="36" t="s">
         <v>461</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C282" s="31">
+      <c r="C282" s="34">
         <v>76.8</v>
       </c>
       <c r="D282" s="7" t="s">
@@ -9871,11 +9921,11 @@
       </c>
     </row>
     <row r="283" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="30"/>
+      <c r="A283" s="35"/>
       <c r="B283" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C283" s="30"/>
+      <c r="C283" s="35"/>
       <c r="D283" s="7" t="s">
         <v>772</v>
       </c>
@@ -9896,11 +9946,11 @@
       <c r="C284" s="8">
         <v>100.6</v>
       </c>
-      <c r="D284" s="39" t="s">
+      <c r="D284" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="E284" s="40"/>
-      <c r="F284" s="41"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="33"/>
       <c r="H284" s="6"/>
     </row>
     <row r="285" spans="1:8" s="4" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -9913,11 +9963,11 @@
       <c r="C285" s="8">
         <v>60.2</v>
       </c>
-      <c r="D285" s="39" t="s">
+      <c r="D285" s="31" t="s">
         <v>1223</v>
       </c>
-      <c r="E285" s="40"/>
-      <c r="F285" s="41"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="33"/>
     </row>
     <row r="286" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
@@ -10358,13 +10408,13 @@
       </c>
     </row>
     <row r="308" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="29" t="s">
+      <c r="A308" s="36" t="s">
         <v>409</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C308" s="31">
+      <c r="C308" s="34">
         <v>100.3</v>
       </c>
       <c r="D308" s="7" t="s">
@@ -10378,11 +10428,11 @@
       </c>
     </row>
     <row r="309" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="32"/>
+      <c r="A309" s="37"/>
       <c r="B309" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C309" s="32"/>
+      <c r="C309" s="37"/>
       <c r="D309" s="7" t="s">
         <v>772</v>
       </c>
@@ -10394,11 +10444,11 @@
       </c>
     </row>
     <row r="310" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="30"/>
+      <c r="A310" s="35"/>
       <c r="B310" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C310" s="30"/>
+      <c r="C310" s="35"/>
       <c r="D310" s="7" t="s">
         <v>772</v>
       </c>
@@ -10490,13 +10540,13 @@
       </c>
     </row>
     <row r="315" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="29" t="s">
+      <c r="A315" s="36" t="s">
         <v>393</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C315" s="31">
+      <c r="C315" s="34">
         <v>77.099999999999994</v>
       </c>
       <c r="D315" s="7" t="s">
@@ -10510,11 +10560,11 @@
       </c>
     </row>
     <row r="316" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="32"/>
+      <c r="A316" s="37"/>
       <c r="B316" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C316" s="32"/>
+      <c r="C316" s="37"/>
       <c r="D316" s="7" t="s">
         <v>772</v>
       </c>
@@ -10526,11 +10576,11 @@
       </c>
     </row>
     <row r="317" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="32"/>
+      <c r="A317" s="37"/>
       <c r="B317" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C317" s="32"/>
+      <c r="C317" s="37"/>
       <c r="D317" s="7" t="s">
         <v>772</v>
       </c>
@@ -10542,11 +10592,11 @@
       </c>
     </row>
     <row r="318" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="30"/>
+      <c r="A318" s="35"/>
       <c r="B318" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C318" s="30"/>
+      <c r="C318" s="35"/>
       <c r="D318" s="7" t="s">
         <v>772</v>
       </c>
@@ -10658,13 +10708,13 @@
       </c>
     </row>
     <row r="324" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="29" t="s">
+      <c r="A324" s="36" t="s">
         <v>378</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C324" s="31">
+      <c r="C324" s="34">
         <v>77.3</v>
       </c>
       <c r="D324" s="7" t="s">
@@ -10678,11 +10728,11 @@
       </c>
     </row>
     <row r="325" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="32"/>
+      <c r="A325" s="37"/>
       <c r="B325" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C325" s="32"/>
+      <c r="C325" s="37"/>
       <c r="D325" s="7" t="s">
         <v>772</v>
       </c>
@@ -10694,11 +10744,11 @@
       </c>
     </row>
     <row r="326" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="30"/>
+      <c r="A326" s="35"/>
       <c r="B326" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C326" s="30"/>
+      <c r="C326" s="35"/>
       <c r="D326" s="7" t="s">
         <v>772</v>
       </c>
@@ -10890,13 +10940,13 @@
       </c>
     </row>
     <row r="336" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="29" t="s">
+      <c r="A336" s="36" t="s">
         <v>353</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C336" s="31">
+      <c r="C336" s="34">
         <v>40.799999999999997</v>
       </c>
       <c r="D336" s="7" t="s">
@@ -10910,11 +10960,11 @@
       </c>
     </row>
     <row r="337" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="32"/>
+      <c r="A337" s="37"/>
       <c r="B337" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C337" s="32"/>
+      <c r="C337" s="37"/>
       <c r="D337" s="7" t="s">
         <v>772</v>
       </c>
@@ -10926,11 +10976,11 @@
       </c>
     </row>
     <row r="338" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="32"/>
+      <c r="A338" s="37"/>
       <c r="B338" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C338" s="32"/>
+      <c r="C338" s="37"/>
       <c r="D338" s="7" t="s">
         <v>772</v>
       </c>
@@ -10942,11 +10992,11 @@
       </c>
     </row>
     <row r="339" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="30"/>
+      <c r="A339" s="35"/>
       <c r="B339" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C339" s="30"/>
+      <c r="C339" s="35"/>
       <c r="D339" s="7" t="s">
         <v>772</v>
       </c>
@@ -11078,13 +11128,13 @@
       </c>
     </row>
     <row r="346" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="29" t="s">
+      <c r="A346" s="36" t="s">
         <v>337</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C346" s="31">
+      <c r="C346" s="34">
         <v>75.400000000000006</v>
       </c>
       <c r="D346" s="7" t="s">
@@ -11098,11 +11148,11 @@
       </c>
     </row>
     <row r="347" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="32"/>
+      <c r="A347" s="37"/>
       <c r="B347" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C347" s="32"/>
+      <c r="C347" s="37"/>
       <c r="D347" s="7" t="s">
         <v>772</v>
       </c>
@@ -11114,11 +11164,11 @@
       </c>
     </row>
     <row r="348" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="30"/>
+      <c r="A348" s="35"/>
       <c r="B348" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C348" s="30"/>
+      <c r="C348" s="35"/>
       <c r="D348" s="7" t="s">
         <v>772</v>
       </c>
@@ -11270,13 +11320,13 @@
       </c>
     </row>
     <row r="356" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="29" t="s">
+      <c r="A356" s="36" t="s">
         <v>316</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C356" s="31">
+      <c r="C356" s="34">
         <v>100.5</v>
       </c>
       <c r="D356" s="7" t="s">
@@ -11290,11 +11340,11 @@
       </c>
     </row>
     <row r="357" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="32"/>
+      <c r="A357" s="37"/>
       <c r="B357" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C357" s="32"/>
+      <c r="C357" s="37"/>
       <c r="D357" s="7" t="s">
         <v>772</v>
       </c>
@@ -11306,11 +11356,11 @@
       </c>
     </row>
     <row r="358" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="30"/>
+      <c r="A358" s="35"/>
       <c r="B358" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C358" s="30"/>
+      <c r="C358" s="35"/>
       <c r="D358" s="7" t="s">
         <v>772</v>
       </c>
@@ -11462,14 +11512,14 @@
       </c>
     </row>
     <row r="366" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="33" t="s">
+      <c r="A366" s="25" t="s">
         <v>300</v>
       </c>
       <c r="B366" s="19"/>
-      <c r="C366" s="35">
+      <c r="C366" s="27">
         <v>42.8</v>
       </c>
-      <c r="D366" s="33" t="s">
+      <c r="D366" s="25" t="s">
         <v>772</v>
       </c>
       <c r="E366" s="18"/>
@@ -11478,20 +11528,20 @@
       </c>
     </row>
     <row r="367" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="36"/>
+      <c r="A367" s="28"/>
       <c r="B367" s="19"/>
-      <c r="C367" s="36"/>
-      <c r="D367" s="38"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="30"/>
       <c r="E367" s="18"/>
       <c r="F367" s="19" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="368" spans="1:6" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="37"/>
+      <c r="A368" s="29"/>
       <c r="B368" s="19"/>
-      <c r="C368" s="37"/>
-      <c r="D368" s="37"/>
+      <c r="C368" s="29"/>
+      <c r="D368" s="29"/>
       <c r="E368" s="18"/>
       <c r="F368" s="19" t="s">
         <v>1251</v>
@@ -11657,13 +11707,13 @@
       <c r="H376" s="6"/>
     </row>
     <row r="377" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="29" t="s">
+      <c r="A377" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C377" s="31">
+      <c r="C377" s="34">
         <v>42.5</v>
       </c>
       <c r="D377" s="7" t="s">
@@ -11677,11 +11727,11 @@
       </c>
     </row>
     <row r="378" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="32"/>
+      <c r="A378" s="37"/>
       <c r="B378" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C378" s="32"/>
+      <c r="C378" s="37"/>
       <c r="D378" s="7" t="s">
         <v>772</v>
       </c>
@@ -11693,11 +11743,11 @@
       </c>
     </row>
     <row r="379" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="32"/>
+      <c r="A379" s="37"/>
       <c r="B379" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C379" s="32"/>
+      <c r="C379" s="37"/>
       <c r="D379" s="7" t="s">
         <v>772</v>
       </c>
@@ -11709,11 +11759,11 @@
       </c>
     </row>
     <row r="380" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="30"/>
+      <c r="A380" s="35"/>
       <c r="B380" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C380" s="30"/>
+      <c r="C380" s="35"/>
       <c r="D380" s="7" t="s">
         <v>772</v>
       </c>
@@ -12083,13 +12133,13 @@
       </c>
     </row>
     <row r="399" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="29" t="s">
+      <c r="A399" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C399" s="31">
+      <c r="C399" s="34">
         <v>62.9</v>
       </c>
       <c r="D399" s="7" t="s">
@@ -12103,11 +12153,11 @@
       </c>
     </row>
     <row r="400" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="30"/>
+      <c r="A400" s="35"/>
       <c r="B400" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C400" s="30"/>
+      <c r="C400" s="35"/>
       <c r="D400" s="7" t="s">
         <v>772</v>
       </c>
@@ -12159,13 +12209,13 @@
       </c>
     </row>
     <row r="403" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="29" t="s">
+      <c r="A403" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C403" s="31">
+      <c r="C403" s="34">
         <v>62.4</v>
       </c>
       <c r="D403" s="7" t="s">
@@ -12179,11 +12229,11 @@
       </c>
     </row>
     <row r="404" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="30"/>
+      <c r="A404" s="35"/>
       <c r="B404" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C404" s="30"/>
+      <c r="C404" s="35"/>
       <c r="D404" s="7" t="s">
         <v>772</v>
       </c>
@@ -13134,13 +13184,13 @@
       </c>
     </row>
     <row r="452" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="25" t="s">
+      <c r="A452" s="38" t="s">
         <v>765</v>
       </c>
       <c r="B452" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="C452" s="27">
+      <c r="C452" s="40">
         <v>96.5</v>
       </c>
       <c r="D452" s="7" t="s">
@@ -13154,11 +13204,11 @@
       </c>
     </row>
     <row r="453" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="26"/>
+      <c r="A453" s="39"/>
       <c r="B453" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="C453" s="28"/>
+      <c r="C453" s="41"/>
       <c r="D453" s="7" t="s">
         <v>772</v>
       </c>
@@ -13210,7 +13260,60 @@
   <sortState ref="A2:AD449">
     <sortCondition ref="A2:A449"/>
   </sortState>
-  <mergeCells count="79">
+  <mergeCells count="69">
+    <mergeCell ref="A452:A453"/>
+    <mergeCell ref="C452:C453"/>
+    <mergeCell ref="A403:A404"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="C377:C380"/>
+    <mergeCell ref="A377:A380"/>
+    <mergeCell ref="C356:C358"/>
+    <mergeCell ref="A356:A358"/>
+    <mergeCell ref="C346:C348"/>
+    <mergeCell ref="A346:A348"/>
+    <mergeCell ref="C336:C339"/>
+    <mergeCell ref="A336:A339"/>
+    <mergeCell ref="C324:C326"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="C315:C318"/>
+    <mergeCell ref="A315:A318"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="A308:A310"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="C268:C271"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A261:A267"/>
+    <mergeCell ref="C261:C267"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="D119:D120"/>
     <mergeCell ref="C366:C368"/>
     <mergeCell ref="D366:D368"/>
@@ -13227,69 +13330,6 @@
     <mergeCell ref="C211:C214"/>
     <mergeCell ref="A211:A214"/>
     <mergeCell ref="C193:C197"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A261:A267"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="A308:A310"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="A282:A283"/>
-    <mergeCell ref="C268:C271"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="C336:C339"/>
-    <mergeCell ref="A336:A339"/>
-    <mergeCell ref="C324:C326"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="C315:C318"/>
-    <mergeCell ref="A315:A318"/>
-    <mergeCell ref="C377:C380"/>
-    <mergeCell ref="A377:A380"/>
-    <mergeCell ref="C356:C358"/>
-    <mergeCell ref="A356:A358"/>
-    <mergeCell ref="C346:C348"/>
-    <mergeCell ref="A346:A348"/>
-    <mergeCell ref="A452:A453"/>
-    <mergeCell ref="C452:C453"/>
-    <mergeCell ref="A403:A404"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="A399:A400"/>
   </mergeCells>
   <pageMargins left="0.39351487486226977" right="0.39351487486226977" top="0.39351487486226977" bottom="0.39351487486226977" header="0.19675743743113489" footer="0.19675743743113489"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
